--- a/neutralization_assays/data/neut_plate_reader_data/mAb_3C06_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/mAb_3C06_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="26840" windowHeight="11560" activeTab="2"/>
+    <workbookView xWindow="31860" yWindow="460" windowWidth="29380" windowHeight="17020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +42,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -96,7 +103,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -125,7 +131,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -187,7 +192,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -216,7 +220,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -278,7 +281,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -404,12 +406,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -468,6 +464,12 @@
   </si>
   <si>
     <t>4/27/2019 9:19:00 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -501,7 +503,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -927,12 +928,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -948,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -956,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -964,7 +965,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -972,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -980,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -988,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -996,17 +997,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1014,12 +1015,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1129,71 +1130,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>9380</v>
@@ -1232,9 +1230,9 @@
         <v>9396</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28380</v>
@@ -1273,9 +1271,9 @@
         <v>28874</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28302</v>
@@ -1314,9 +1312,9 @@
         <v>8377</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>26475</v>
@@ -1355,9 +1353,9 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>27951</v>
@@ -1396,9 +1394,9 @@
         <v>8335</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>28791</v>
@@ -1437,23 +1435,23 @@
         <v>30873</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1462,12 +1460,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1499,15 +1497,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1531,17 +1529,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1549,12 +1547,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1664,71 +1662,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6850</v>
@@ -1767,9 +1762,9 @@
         <v>6688</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>24419</v>
@@ -1808,9 +1803,9 @@
         <v>30270</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25920</v>
@@ -1849,9 +1844,9 @@
         <v>18828</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>21813</v>
@@ -1890,9 +1885,9 @@
         <v>19239</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>22705</v>
@@ -1931,9 +1926,9 @@
         <v>15917</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>17454</v>
@@ -1972,23 +1967,23 @@
         <v>26649</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1997,12 +1992,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2034,15 +2029,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2066,17 +2061,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2084,12 +2079,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +2150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2199,71 +2194,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9611</v>
@@ -2302,9 +2294,9 @@
         <v>9488</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>27497</v>
@@ -2343,9 +2335,9 @@
         <v>31057</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>30435</v>
@@ -2384,9 +2376,9 @@
         <v>8466</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>30773</v>
@@ -2425,9 +2417,9 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28382</v>
@@ -2466,9 +2458,9 @@
         <v>8412</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29132</v>
@@ -2507,21 +2499,21 @@
         <v>26730</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>